--- a/doc/任务表.xlsx
+++ b/doc/任务表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,22 @@
   </si>
   <si>
     <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组聊天2 - 修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现-网点群组-有群组数据 - 修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月3日下班前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -40,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -76,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,32 +436,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
